--- a/data/trans_orig/P14C09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C09-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B63D259A-35B7-484C-A519-C74B5E2FDD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB600C70-57E0-48BD-9922-AFAE312B2FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A2A61660-84BE-434C-8830-1F0DAE3F53FB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9D01B818-AED0-4E8F-B657-9803DFB4814C}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="140">
   <si>
     <t>Población según el tiempo de diagnóstico del asma en 2015 (Tasa respuesta: 3,26%)</t>
   </si>
@@ -74,7 +74,7 @@
     <t>94,19%</t>
   </si>
   <si>
-    <t>68,52%</t>
+    <t>70,47%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,19 +83,19 @@
     <t>76,88%</t>
   </si>
   <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
   </si>
   <si>
     <t>84,41%</t>
   </si>
   <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,25 +107,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>31,48%</t>
+    <t>29,53%</t>
   </si>
   <si>
     <t>18,13%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
   </si>
   <si>
     <t>12,77%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -140,13 +140,13 @@
     <t>5,0%</t>
   </si>
   <si>
-    <t>24,38%</t>
+    <t>21,57%</t>
   </si>
   <si>
     <t>2,82%</t>
   </si>
   <si>
-    <t>11,44%</t>
+    <t>13,98%</t>
   </si>
   <si>
     <t>100%</t>
@@ -158,295 +158,292 @@
     <t>87,76%</t>
   </si>
   <si>
-    <t>62,92%</t>
+    <t>62,7%</t>
   </si>
   <si>
     <t>86,87%</t>
   </si>
   <si>
-    <t>68,46%</t>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
   </si>
   <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
   </si>
   <si>
     <t>95,02%</t>
   </si>
   <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>4,82%</t>
+    <t>4,83%</t>
   </si>
   <si>
     <t>1,23%</t>
@@ -455,7 +452,7 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>3,26%</t>
+    <t>3,32%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -870,7 +867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA5858F-AEA6-4B86-9E68-0CF7C10023BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DEC9F23-A337-438F-9BE3-2F425A6DE0BE}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1648,7 +1645,7 @@
         <v>82</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1669,7 +1666,7 @@
         <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1678,13 +1675,13 @@
         <v>3124</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1693,13 +1690,13 @@
         <v>3124</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1720,7 +1717,7 @@
         <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1735,7 +1732,7 @@
         <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1750,7 +1747,7 @@
         <v>31</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1806,7 +1803,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1821,7 +1818,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>37</v>
@@ -1836,7 +1833,7 @@
         <v>13</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>37</v>
@@ -1851,7 +1848,7 @@
         <v>13</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>37</v>
@@ -1875,7 +1872,7 @@
         <v>31</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -1890,7 +1887,7 @@
         <v>31</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -1905,7 +1902,7 @@
         <v>31</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1926,7 +1923,7 @@
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -1941,7 +1938,7 @@
         <v>31</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -1956,7 +1953,7 @@
         <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2012,7 +2009,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2024,13 +2021,13 @@
         <v>17314</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -2042,7 +2039,7 @@
         <v>13</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>37</v>
@@ -2054,13 +2051,13 @@
         <v>50703</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2075,13 +2072,13 @@
         <v>2692</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2096,7 +2093,7 @@
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -2105,13 +2102,13 @@
         <v>2692</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,13 +2123,13 @@
         <v>807</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2147,7 +2144,7 @@
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2156,13 +2153,13 @@
         <v>807</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,13 +2227,13 @@
         <v>78799</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H28" s="7">
         <v>117</v>
@@ -2245,13 +2242,13 @@
         <v>126349</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M28" s="7">
         <v>193</v>
@@ -2260,13 +2257,13 @@
         <v>205148</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,13 +2278,13 @@
         <v>6579</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -2296,13 +2293,13 @@
         <v>10839</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M29" s="7">
         <v>18</v>
@@ -2311,13 +2308,13 @@
         <v>17419</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,13 +2329,13 @@
         <v>807</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -2347,13 +2344,13 @@
         <v>1969</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -2362,13 +2359,13 @@
         <v>2775</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,7 +2421,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C09-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB600C70-57E0-48BD-9922-AFAE312B2FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48080BEA-9C91-47FA-80F9-EFE4E5D846F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9D01B818-AED0-4E8F-B657-9803DFB4814C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4206C566-F373-41A8-B576-D44F78487BCA}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="140">
-  <si>
-    <t>Población según el tiempo de diagnóstico del asma en 2015 (Tasa respuesta: 3,26%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="142">
+  <si>
+    <t>Población según el tiempo de diagnóstico del asma en 2016 (Tasa respuesta: 3,26%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,7 +74,7 @@
     <t>94,19%</t>
   </si>
   <si>
-    <t>70,47%</t>
+    <t>70,55%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,19 +83,19 @@
     <t>76,88%</t>
   </si>
   <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
   </si>
   <si>
     <t>84,41%</t>
   </si>
   <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,25 +107,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>29,53%</t>
+    <t>29,45%</t>
   </si>
   <si>
     <t>18,13%</t>
   </si>
   <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
   </si>
   <si>
     <t>12,77%</t>
   </si>
   <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -140,13 +140,13 @@
     <t>5,0%</t>
   </si>
   <si>
-    <t>21,57%</t>
+    <t>24,38%</t>
   </si>
   <si>
     <t>2,82%</t>
   </si>
   <si>
-    <t>13,98%</t>
+    <t>14,99%</t>
   </si>
   <si>
     <t>100%</t>
@@ -158,49 +158,49 @@
     <t>87,76%</t>
   </si>
   <si>
-    <t>62,7%</t>
+    <t>63,11%</t>
   </si>
   <si>
     <t>86,87%</t>
   </si>
   <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
   </si>
   <si>
     <t>87,25%</t>
   </si>
   <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
   </si>
   <si>
     <t>12,24%</t>
   </si>
   <si>
-    <t>37,3%</t>
+    <t>36,89%</t>
   </si>
   <si>
     <t>13,13%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
   </si>
   <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
   </si>
   <si>
     <t>8,27%</t>
@@ -215,40 +215,40 @@
     <t>92,2%</t>
   </si>
   <si>
-    <t>65,16%</t>
+    <t>53,96%</t>
   </si>
   <si>
     <t>91,09%</t>
   </si>
   <si>
-    <t>69,35%</t>
+    <t>71,66%</t>
   </si>
   <si>
     <t>91,49%</t>
   </si>
   <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
   </si>
   <si>
     <t>7,8%</t>
   </si>
   <si>
-    <t>34,84%</t>
+    <t>46,04%</t>
   </si>
   <si>
     <t>4,79%</t>
   </si>
   <si>
-    <t>19,74%</t>
+    <t>22,83%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>19,38%</t>
+    <t>17,69%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -257,13 +257,13 @@
     <t>4,12%</t>
   </si>
   <si>
-    <t>20,17%</t>
+    <t>17,53%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>12,22%</t>
+    <t>13,21%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -275,16 +275,19 @@
     <t>85,55%</t>
   </si>
   <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
   </si>
   <si>
     <t>89,52%</t>
   </si>
   <si>
-    <t>74,25%</t>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -293,16 +296,19 @@
     <t>14,45%</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
   </si>
   <si>
     <t>10,48%</t>
   </si>
   <si>
-    <t>25,75%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
   </si>
   <si>
     <t>9,05%</t>
@@ -335,124 +341,124 @@
     <t>83,19%</t>
   </si>
   <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
   <si>
     <t>93,55%</t>
   </si>
   <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
   </si>
   <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
   </si>
   <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
   </si>
   <si>
     <t>3,88%</t>
   </si>
   <si>
-    <t>19,72%</t>
+    <t>23,3%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>8,19%</t>
+    <t>9,33%</t>
   </si>
   <si>
     <t>91,43%</t>
   </si>
   <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
   </si>
   <si>
     <t>90,8%</t>
   </si>
   <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
   </si>
   <si>
     <t>91,04%</t>
   </si>
   <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
   </si>
   <si>
     <t>7,79%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
   </si>
   <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>4,01%</t>
+    <t>4,72%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>4,83%</t>
+    <t>4,87%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -867,7 +873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DEC9F23-A337-438F-9BE3-2F425A6DE0BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1957058-1758-4C94-AD67-47407DF01186}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1645,7 +1651,7 @@
         <v>82</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1666,7 +1672,7 @@
         <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1675,13 +1681,13 @@
         <v>3124</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1690,13 +1696,13 @@
         <v>3124</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1717,7 +1723,7 @@
         <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1732,7 +1738,7 @@
         <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1747,7 +1753,7 @@
         <v>31</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1803,7 +1809,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1818,7 +1824,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>37</v>
@@ -1833,7 +1839,7 @@
         <v>13</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>37</v>
@@ -1848,7 +1854,7 @@
         <v>13</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>37</v>
@@ -1872,7 +1878,7 @@
         <v>31</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -1887,7 +1893,7 @@
         <v>31</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -1902,7 +1908,7 @@
         <v>31</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1923,7 +1929,7 @@
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -1938,7 +1944,7 @@
         <v>31</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -1953,7 +1959,7 @@
         <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2009,7 +2015,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2021,13 +2027,13 @@
         <v>17314</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -2039,7 +2045,7 @@
         <v>13</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>37</v>
@@ -2051,13 +2057,13 @@
         <v>50703</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,13 +2078,13 @@
         <v>2692</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2093,7 +2099,7 @@
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -2102,13 +2108,13 @@
         <v>2692</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2123,13 +2129,13 @@
         <v>807</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2144,7 +2150,7 @@
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2153,13 +2159,13 @@
         <v>807</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,13 +2233,13 @@
         <v>78799</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H28" s="7">
         <v>117</v>
@@ -2242,13 +2248,13 @@
         <v>126349</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M28" s="7">
         <v>193</v>
@@ -2257,13 +2263,13 @@
         <v>205148</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,13 +2284,13 @@
         <v>6579</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -2293,13 +2299,13 @@
         <v>10839</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M29" s="7">
         <v>18</v>
@@ -2308,13 +2314,13 @@
         <v>17419</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,13 +2335,13 @@
         <v>807</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -2344,13 +2350,13 @@
         <v>1969</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -2359,13 +2365,13 @@
         <v>2775</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2421,7 +2427,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
